--- a/init_scripts/INIT_TABLE_DATA/t_page_data_conf.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_page_data_conf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5105C47-4A14-4367-851E-6D9EE5A9DA8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67330A4A-D0F7-49F3-9F08-F8796B302C6C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>p_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,40 +35,6 @@
   </si>
   <si>
     <t>p_description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选条件</t>
-  </si>
-  <si>
-    <t>转化周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15天累计数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件:转化周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件:宝贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推广计划列表-宝贝-日报</t>
-  </si>
-  <si>
-    <t>推广计划列表-宝贝-日报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -405,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -421,7 +387,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -436,40 +402,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
